--- a/Motor Sequence Learning Tutorial 4.xlsx
+++ b/Motor Sequence Learning Tutorial 4.xlsx
@@ -14,12 +14,12 @@
   <sheets>
     <sheet name="Motor Sequence Learning T-4" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>key_resp.corr</t>
   </si>
@@ -31,6 +31,9 @@
   </si>
   <si>
     <t>ranRT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">difference= </t>
   </si>
 </sst>
 </file>
@@ -173,7 +176,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -353,6 +356,12 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -514,8 +523,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -589,7 +599,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1268,11 +1277,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-74496672"/>
-        <c:axId val="-74498304"/>
+        <c:axId val="624192784"/>
+        <c:axId val="624187888"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-74496672"/>
+        <c:axId val="624192784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1314,7 +1323,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-74498304"/>
+        <c:crossAx val="624187888"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1322,7 +1331,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-74498304"/>
+        <c:axId val="624187888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1373,7 +1382,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-74496672"/>
+        <c:crossAx val="624192784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1387,7 +1396,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2308,10 +2316,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E193"/>
+  <dimension ref="A1:G193"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O14" sqref="O14"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="D102" sqref="D102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2319,7 +2327,8 @@
     <col min="1" max="1" width="15.08984375" customWidth="1"/>
     <col min="2" max="2" width="12.81640625" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
-    <col min="5" max="5" width="12" customWidth="1"/>
+    <col min="5" max="5" width="13.453125" customWidth="1"/>
+    <col min="6" max="6" width="13.7265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
@@ -3666,7 +3675,7 @@
         <v>0.907060100231319</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A97">
         <v>1</v>
       </c>
@@ -3680,15 +3689,30 @@
         <v>0.68803810002282195</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A98">
         <v>1</v>
       </c>
       <c r="B98">
         <v>1.38580530020408</v>
       </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D98" s="1">
+        <f>AVERAGE(D2:D97)</f>
+        <v>0.66998445218147562</v>
+      </c>
+      <c r="E98" s="1">
+        <f>AVERAGE(E2:E97)</f>
+        <v>0.97474239595855094</v>
+      </c>
+      <c r="F98" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G98" s="1">
+        <f>E98-D98</f>
+        <v>0.30475794377707532</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A99">
         <v>1</v>
       </c>
@@ -3696,7 +3720,7 @@
         <v>1.1426555002108201</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A100">
         <v>1</v>
       </c>
@@ -3704,7 +3728,7 @@
         <v>0.87187670008279305</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A101">
         <v>1</v>
       </c>
@@ -3712,7 +3736,7 @@
         <v>0.83294320013374001</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A102">
         <v>1</v>
       </c>
@@ -3720,7 +3744,7 @@
         <v>0.85922869993373696</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A103">
         <v>1</v>
       </c>
@@ -3728,7 +3752,7 @@
         <v>0.98204560019075804</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A104">
         <v>1</v>
       </c>
@@ -3736,7 +3760,7 @@
         <v>1.00382290012203</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A105">
         <v>1</v>
       </c>
@@ -3744,7 +3768,7 @@
         <v>0.80649170023389105</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A106">
         <v>1</v>
       </c>
@@ -3752,7 +3776,7 @@
         <v>0.994988200254738</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A107">
         <v>1</v>
       </c>
@@ -3760,7 +3784,7 @@
         <v>0.875398300122469</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A108">
         <v>1</v>
       </c>
@@ -3768,7 +3792,7 @@
         <v>1.01220360025763</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A109">
         <v>1</v>
       </c>
@@ -3776,7 +3800,7 @@
         <v>0.93890410009771497</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A110">
         <v>1</v>
       </c>
@@ -3784,7 +3808,7 @@
         <v>0.83822100027464297</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A111">
         <v>1</v>
       </c>
@@ -3792,7 +3816,7 @@
         <v>0.72352900006808296</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A112">
         <v>1</v>
       </c>
